--- a/KC_Amp/KCInput_VAS/PCB/Project Outputs for KC_Input_VAS/KC_Input_VAS.xlsx
+++ b/KC_Amp/KCInput_VAS/PCB/Project Outputs for KC_Input_VAS/KC_Input_VAS.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevelopWorkSpace\Github\AudioProject\KC_Amp\KCInput_VAS\PCB\Project Outputs for KC_Input_VAS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="11565"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>Comment</t>
   </si>
@@ -44,7 +39,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>0.1uF/275V</t>
+    <t>2.2nF</t>
   </si>
   <si>
     <t>C1</t>
@@ -56,10 +51,22 @@
     <t>C-CBB</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5</t>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C2, C5</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>C4</t>
   </si>
   <si>
     <t>.01uF</t>
@@ -83,13 +90,16 @@
     <t>1N5xxx</t>
   </si>
   <si>
+    <t>1N914</t>
+  </si>
+  <si>
+    <t>DZ1</t>
+  </si>
+  <si>
+    <t>DO-41</t>
+  </si>
+  <si>
     <t>1N4619</t>
-  </si>
-  <si>
-    <t>DZ1</t>
-  </si>
-  <si>
-    <t>DO-41</t>
   </si>
   <si>
     <t>MAT-02</t>
@@ -925,13 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -979,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -991,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -999,7 +1009,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1011,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,139 +1029,139 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,156 +1169,156 @@
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1316,19 +1326,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1336,59 +1346,59 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1396,59 +1406,59 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1456,19 +1466,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1476,19 +1486,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1496,21 +1506,61 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="3">
         <v>1</v>
       </c>
     </row>
